--- a/Final-Project-Plan (1).xlsx
+++ b/Final-Project-Plan (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smtausif/Desktop/cprtausif/CPR_project/cprproversion1/cpr101_version1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFAC5016-2123-F847-9350-7DD89B560D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF409CE9-E7EA-094D-A959-CA551BB58CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8560" yWindow="0" windowWidth="24380" windowHeight="21600" xr2:uid="{D8E31B3C-F149-45D6-99B7-2CDC65D256FF}"/>
   </bookViews>
@@ -1007,7 +1007,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="71">
   <si>
     <t>TO DO</t>
   </si>
@@ -1557,6 +1557,27 @@
   </si>
   <si>
     <t>2 .2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fundamental vesion 3 completed </t>
+  </si>
+  <si>
+    <t>manipulating version 3  code and comment update the text and excel file completed</t>
+  </si>
+  <si>
+    <t>tokenizing  version 3 code and comment update the text and excel file completed</t>
+  </si>
+  <si>
+    <t>conversion version 3, test the data update thwe files and push it to git completed</t>
+  </si>
+  <si>
+    <t>1 hour | 35 mins</t>
+  </si>
+  <si>
+    <t>50 mins</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
@@ -2655,10 +2676,10 @@
   <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="R6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P10" sqref="P10"/>
+      <selection pane="bottomRight" activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3189,15 +3210,21 @@
       <c r="Q7" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
+      <c r="R7" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="S7" s="18" t="s">
+        <v>69</v>
+      </c>
       <c r="T7" s="24" t="str">
         <f>TEXT(($E$3+T$3-1),"dddd
 ") &amp; TEXT(($E$3+T$3-1),"mmm.d")</f>
         <v>Tuesday
 Dec.13</v>
       </c>
-      <c r="U7" s="18"/>
+      <c r="U7" s="18" t="s">
+        <v>70</v>
+      </c>
       <c r="V7" s="18"/>
       <c r="W7" s="18"/>
       <c r="X7" s="18"/>
@@ -3266,15 +3293,21 @@
       <c r="Q8" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
+      <c r="R8" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="S8" s="18" t="s">
+        <v>68</v>
+      </c>
       <c r="T8" s="24" t="str">
         <f>TEXT(($E$3+T$3-1),"dddd
 ") &amp; TEXT(($E$3+T$3-1),"mmm.d")</f>
         <v>Tuesday
 Dec.13</v>
       </c>
-      <c r="U8" s="18"/>
+      <c r="U8" s="18" t="s">
+        <v>70</v>
+      </c>
       <c r="V8" s="18"/>
       <c r="W8" s="18"/>
       <c r="X8" s="18"/>
@@ -3343,15 +3376,21 @@
       <c r="Q9" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
+      <c r="R9" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="S9" s="18" t="s">
+        <v>61</v>
+      </c>
       <c r="T9" s="24" t="str">
         <f>TEXT(($E$3+T$3-1),"dddd
 ") &amp; TEXT(($E$3+T$3-1),"mmm.d")</f>
         <v>Tuesday
 Dec.13</v>
       </c>
-      <c r="U9" s="18"/>
+      <c r="U9" s="18" t="s">
+        <v>70</v>
+      </c>
       <c r="V9" s="18"/>
       <c r="W9" s="18"/>
       <c r="X9" s="18"/>
@@ -3421,15 +3460,21 @@
       <c r="Q10" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
+      <c r="R10" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="S10" s="12">
+        <v>1.2</v>
+      </c>
       <c r="T10" s="25" t="str">
         <f>TEXT(($E$3+T$3),"dddd
 ") &amp; TEXT(($E$3+T$3),"mmm.d")</f>
         <v>Wednesday
 Dec.14</v>
       </c>
-      <c r="U10" s="18"/>
+      <c r="U10" s="18" t="s">
+        <v>70</v>
+      </c>
       <c r="V10" s="18"/>
       <c r="W10" s="18"/>
       <c r="X10" s="18"/>
@@ -3800,18 +3845,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3833,14 +3878,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A37522F-39F4-4439-AEEC-7D6E0C35C759}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76FEA26C-2233-4295-8BE1-B265CEAD26C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -3854,4 +3891,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A37522F-39F4-4439-AEEC-7D6E0C35C759}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>